--- a/plots/countries/plot data/Netherlands.xlsx
+++ b/plots/countries/plot data/Netherlands.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>25.29297368505</v>
+        <v>25.3006953793171</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>40.0549374031069</v>
+        <v>40.2369940336539</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>3.0615272545986</v>
+        <v>3.1868536088986</v>
       </c>
     </row>
     <row r="5">
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>29.8611839721996</v>
+        <v>29.7559015574447</v>
       </c>
     </row>
     <row r="6">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>27.7962509946053</v>
+        <v>27.9483569683168</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>26.1206595296608</v>
+        <v>26.119650775631</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>5.37326344500697</v>
+        <v>4.41999925324134</v>
       </c>
     </row>
     <row r="10">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>25.5749114122669</v>
+        <v>25.6393132155472</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>45.2562010310798</v>
+        <v>45.4969860895261</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>2.9919130284711</v>
+        <v>3.1180622538986</v>
       </c>
     </row>
     <row r="14">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>29.7172918910196</v>
+        <v>29.5945014316566</v>
       </c>
     </row>
     <row r="15">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>28.3406235354966</v>
+        <v>28.4927847131467</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>27.2601417881202</v>
+        <v>27.2608890185048</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>5.41954366441944</v>
+        <v>4.46782901823534</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>16.4408046197008</v>
+        <v>16.4408046197009</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>25.5948891697516</v>
+        <v>25.6593025194585</v>
       </c>
     </row>
     <row r="21">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>42.3340822838685</v>
+        <v>42.5938259030566</v>
       </c>
     </row>
     <row r="22">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>2.9213550053436</v>
+        <v>3.0455248998986</v>
       </c>
     </row>
     <row r="23">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>29.2466320593609</v>
+        <v>29.111256560211</v>
       </c>
     </row>
     <row r="24">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>29.8214421091481</v>
+        <v>29.9717758478669</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>29.9900635156827</v>
+        <v>29.9894239718502</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>5.35742691081473</v>
+        <v>4.40765045129866</v>
       </c>
     </row>
     <row r="28">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>25.2090232100059</v>
+        <v>25.2712737052842</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>44.6590103471099</v>
+        <v>44.8688431610943</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>2.8505057150411</v>
+        <v>2.9748963798986</v>
       </c>
     </row>
     <row r="32">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>28.3843850417016</v>
+        <v>28.2411601067189</v>
       </c>
     </row>
     <row r="33">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>30.6637442723407</v>
+        <v>30.8111081352302</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>26.495201825275</v>
+        <v>26.4957370233013</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>5.4224553306974</v>
+        <v>4.47495826570666</v>
       </c>
     </row>
     <row r="37">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>24.2818991875395</v>
+        <v>24.3329839434832</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>41.9762147779202</v>
+        <v>42.1976175558338</v>
       </c>
     </row>
     <row r="40">
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>2.78477965502091</v>
+        <v>2.90941116020841</v>
       </c>
     </row>
     <row r="41">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>27.9327467895713</v>
+        <v>27.7784736830938</v>
       </c>
     </row>
     <row r="42">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>30.0499779136177</v>
+        <v>30.1971175282624</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>28.547202850664</v>
+        <v>28.5482579288605</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>5.42242956166534</v>
+        <v>4.47755543234632</v>
       </c>
     </row>
     <row r="46">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>24.2754336540133</v>
+        <v>24.3180116523385</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>44.3355279071364</v>
+        <v>44.5659384443663</v>
       </c>
     </row>
     <row r="49">
@@ -1445,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>2.71360488614161</v>
+        <v>2.83847723165911</v>
       </c>
     </row>
     <row r="50">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>26.7141151207167</v>
+        <v>26.5524585304343</v>
       </c>
     </row>
     <row r="51">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>30.4870799835392</v>
+        <v>30.6321448219396</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>25.6020209278141</v>
+        <v>25.6008953487509</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>5.2126059944507</v>
+        <v>4.26597959044165</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>23.9038689653638</v>
+        <v>23.9475084100746</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>50.5877773494945</v>
+        <v>50.8374697259509</v>
       </c>
     </row>
     <row r="58">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>2.49627254655734</v>
+        <v>2.62136566237734</v>
       </c>
     </row>
     <row r="59">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>27.3991213350891</v>
+        <v>27.2166245753413</v>
       </c>
     </row>
     <row r="60">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>31.8671255385868</v>
+        <v>32.0116042890501</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>27.6066659084671</v>
+        <v>27.6056907825373</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>5.07291306851203</v>
+        <v>4.1296250414883</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>13.953817739309</v>
+        <v>13.9538177393089</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>23.0446575935387</v>
+        <v>23.0884631980632</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>43.3835226576407</v>
+        <v>43.6305624202342</v>
       </c>
     </row>
     <row r="67">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>1.92495505106112</v>
+        <v>2.04952634616612</v>
       </c>
     </row>
     <row r="68">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>26.6041750321864</v>
+        <v>26.4256208900376</v>
       </c>
     </row>
     <row r="69">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>31.7547393996929</v>
+        <v>31.8970677898508</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>28.5785062823115</v>
+        <v>28.577955837248</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>4.86783359920625</v>
+        <v>3.93902394874496</v>
       </c>
     </row>
     <row r="73">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>22.3705305843897</v>
+        <v>22.3980647768387</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>41.7803247241368</v>
+        <v>42.0214096861701</v>
       </c>
     </row>
     <row r="76">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>1.74643966948666</v>
+        <v>1.87262903496916</v>
       </c>
     </row>
     <row r="77">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>25.8157251079511</v>
+        <v>25.6433333754258</v>
       </c>
     </row>
     <row r="78">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>32.4346974870137</v>
+        <v>32.57544115124</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>29.5003150626311</v>
+        <v>29.4992936146054</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>5.3081430001247</v>
+        <v>4.38276470804866</v>
       </c>
     </row>
     <row r="82">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>21.8882420418864</v>
+        <v>21.9165752766439</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>40.0891415327133</v>
+        <v>40.3255558658701</v>
       </c>
     </row>
     <row r="85">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>1.441390715601</v>
+        <v>1.566395949461</v>
       </c>
     </row>
     <row r="86">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>25.2362310387352</v>
+        <v>25.0673469084082</v>
       </c>
     </row>
     <row r="87">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>32.9448057920112</v>
+        <v>33.0876087641868</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>24.3604706757113</v>
+        <v>24.3604275109833</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>5.09675976053084</v>
+        <v>4.17632860327231</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>11.9661842981408</v>
+        <v>11.9661842981409</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>20.7284172234389</v>
+        <v>20.7608290479832</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>40.1200463006327</v>
+        <v>40.3441570359586</v>
       </c>
     </row>
     <row r="94">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>1.3996567154425</v>
+        <v>1.52628002068</v>
       </c>
     </row>
     <row r="95">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>24.7192301331318</v>
+        <v>24.5663391772155</v>
       </c>
     </row>
     <row r="96">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>32.946278207558</v>
+        <v>33.0864648466138</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>23.4253650199586</v>
+        <v>23.4252417094505</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>5.38508866965438</v>
+        <v>4.47037762382668</v>
       </c>
     </row>
     <row r="100">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>20.3638647263929</v>
+        <v>20.3894061092712</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>41.5754796572773</v>
+        <v>41.7920890109659</v>
       </c>
     </row>
     <row r="103">
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>1.285352355065</v>
+        <v>1.41359152868</v>
       </c>
     </row>
     <row r="104">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>24.3800025363803</v>
+        <v>24.2365097287425</v>
       </c>
     </row>
     <row r="105">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>33.2564987147394</v>
+        <v>33.3945283859254</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>20.5086662793689</v>
+        <v>20.5082427209719</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>5.9185905000725</v>
+        <v>5.01005258671504</v>
       </c>
     </row>
     <row r="109">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>19.1258238016419</v>
+        <v>19.1556835816017</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>39.6668581372872</v>
+        <v>39.8706187795686</v>
       </c>
     </row>
     <row r="112">
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>2.1860277756875</v>
+        <v>2.31588502068</v>
       </c>
     </row>
     <row r="113">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>24.0079245724437</v>
+        <v>23.8782417590284</v>
       </c>
     </row>
     <row r="114">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>34.0155260475484</v>
+        <v>34.1478128481815</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>21.2888079327818</v>
+        <v>21.2885188669082</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>6.10551982788941</v>
+        <v>5.20385022989706</v>
       </c>
     </row>
     <row r="118">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>18.7368041431554</v>
+        <v>18.7520655024797</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>40.7892989021467</v>
+        <v>40.9719826274266</v>
       </c>
     </row>
     <row r="121">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>2.10181951263986</v>
+        <v>2.23241174779986</v>
       </c>
     </row>
     <row r="122">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>23.7565806693676</v>
+        <v>23.6470021169919</v>
       </c>
     </row>
     <row r="123">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>34.5748820540375</v>
+        <v>34.6995762402304</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>20.2352958576572</v>
+        <v>20.2340220242986</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>5.43271242708868</v>
+        <v>4.538934836679</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>9.50410945256254</v>
+        <v>9.50410945256252</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>18.5222224770521</v>
+        <v>18.5391955902918</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>40.665977358502</v>
+        <v>40.8370227143139</v>
       </c>
     </row>
     <row r="130">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>1.99784393544967</v>
+        <v>2.13206390906467</v>
       </c>
     </row>
     <row r="131">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>23.233366567731</v>
+        <v>23.136099252808</v>
       </c>
     </row>
     <row r="132">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>35.1640539152416</v>
+        <v>35.282383811468</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>20.8217406883205</v>
+        <v>20.819525000953</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>5.59852385950418</v>
+        <v>4.70720751401668</v>
       </c>
     </row>
     <row r="136">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>18.3689446298066</v>
+        <v>18.3871830943553</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>39.2796452380374</v>
+        <v>39.4436830287452</v>
       </c>
     </row>
     <row r="139">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>2.13079928743692</v>
+        <v>2.26552101173942</v>
       </c>
     </row>
     <row r="140">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>23.4281613626527</v>
+        <v>23.3414632897822</v>
       </c>
     </row>
     <row r="141">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>35.3907037284026</v>
+        <v>35.5273609594496</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>20.3828291034702</v>
+        <v>20.3849507600529</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>5.52402597408573</v>
+        <v>4.63283258315468</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>7.44606219961572</v>
+        <v>7.44606219961573</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>18.5073287411159</v>
+        <v>18.5266051747115</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>38.8223611797863</v>
+        <v>38.9711012028028</v>
       </c>
     </row>
     <row r="148">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>2.03124059716304</v>
+        <v>2.16396512256554</v>
       </c>
     </row>
     <row r="149">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>22.339347733272</v>
+        <v>22.2674308875013</v>
       </c>
     </row>
     <row r="150">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>36.2768591819115</v>
+        <v>36.4352041946266</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>21.3122091002337</v>
+        <v>21.3118504378684</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>5.36476311980358</v>
+        <v>4.47252268180199</v>
       </c>
     </row>
     <row r="154">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>18.3388004313038</v>
+        <v>18.3587266185755</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>36.4152363530473</v>
+        <v>36.5535112353218</v>
       </c>
     </row>
     <row r="157">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>2.17657183145869</v>
+        <v>2.31007688493369</v>
       </c>
     </row>
     <row r="158">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>22.3963728962057</v>
+        <v>22.336138356635</v>
       </c>
     </row>
     <row r="159">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>35.2666857467852</v>
+        <v>35.4375841459687</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>20.9837427413387</v>
+        <v>20.983862553208</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>5.73184296266802</v>
+        <v>4.83955705067502</v>
       </c>
     </row>
     <row r="163">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>18.4141044010574</v>
+        <v>18.4298461899064</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>40.4868390083509</v>
+        <v>40.6167790390092</v>
       </c>
     </row>
     <row r="166">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>2.01076973833292</v>
+        <v>2.14047889228292</v>
       </c>
     </row>
     <row r="167">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>21.430377389423</v>
+        <v>21.3788741689351</v>
       </c>
     </row>
     <row r="168">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>35.5012571058522</v>
+        <v>35.679739011843</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>17.6705204445464</v>
+        <v>17.6679859472345</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>6.05522078504521</v>
+        <v>5.16285194480939</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>6.06743183413718</v>
+        <v>6.06743183413719</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>18.33886268709</v>
+        <v>18.3552440580306</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>40.4505582466426</v>
+        <v>40.5716770733311</v>
       </c>
     </row>
     <row r="175">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>1.98372804746302</v>
+        <v>2.11351748152302</v>
       </c>
     </row>
     <row r="176">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>19.6422832491554</v>
+        <v>19.5995656347409</v>
       </c>
     </row>
     <row r="177">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>33.9393544276182</v>
+        <v>34.1238429764696</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>16.8336101136229</v>
+        <v>16.837014134965</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>5.78998557862115</v>
+        <v>4.92331393878204</v>
       </c>
     </row>
     <row r="181">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>18.3302635147511</v>
+        <v>18.3492096521338</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>46.8576223133918</v>
+        <v>46.9707791389868</v>
       </c>
     </row>
     <row r="184">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>2.0776525242342</v>
+        <v>2.2084655296967</v>
       </c>
     </row>
     <row r="185">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>20.7046514884123</v>
+        <v>20.6697954136335</v>
       </c>
     </row>
     <row r="186">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>34.7347602285653</v>
+        <v>34.9202135673824</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>18.3088201806633</v>
+        <v>18.3084736974757</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>5.4256719724955</v>
+        <v>4.58540682022934</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>5.42450623826181</v>
+        <v>5.42450623826182</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>18.0172810452634</v>
+        <v>18.0344433136805</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>38.259917047345</v>
+        <v>38.36414626935</v>
       </c>
     </row>
     <row r="193">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>1.93676999815847</v>
+        <v>2.06614556249097</v>
       </c>
     </row>
     <row r="194">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>20.8687436678982</v>
+        <v>20.8426334754371</v>
       </c>
     </row>
     <row r="195">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>34.6487976759248</v>
+        <v>34.8411793050605</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>17.5354808536673</v>
+        <v>17.5341850068827</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>5.64878003136019</v>
+        <v>4.83515816759636</v>
       </c>
     </row>
     <row r="199">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>17.8084434196445</v>
+        <v>17.8493121606098</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>40.2652908719185</v>
+        <v>40.3651013826897</v>
       </c>
     </row>
     <row r="202">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>1.7665299486333</v>
+        <v>1.8933338841183</v>
       </c>
     </row>
     <row r="203">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>20.5419914838505</v>
+        <v>20.5205061305102</v>
       </c>
     </row>
     <row r="204">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>33.1492951702613</v>
+        <v>33.334494896179</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>17.0701278563666</v>
+        <v>17.0688607115498</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>5.41537027153201</v>
+        <v>4.62857788235068</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>4.85716961518112</v>
+        <v>4.85716961518113</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>18.2957852689463</v>
+        <v>18.3234838149245</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>41.3397934584288</v>
+        <v>41.4348760928238</v>
       </c>
     </row>
     <row r="211">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>1.9464134151925</v>
+        <v>2.07024211928</v>
       </c>
     </row>
     <row r="212">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>19.9487482056029</v>
+        <v>19.9311576962399</v>
       </c>
     </row>
     <row r="213">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>31.636240751377</v>
+        <v>31.8056742586742</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>16.7788204501147</v>
+        <v>16.7782081606298</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>4.93980504854689</v>
+        <v>4.12031649759797</v>
       </c>
     </row>
     <row r="217">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>18.4835635539898</v>
+        <v>18.5178677362976</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>32.9582805318597</v>
+        <v>33.0496581334773</v>
       </c>
     </row>
     <row r="220">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>1.87195302094068</v>
+        <v>1.99552841552068</v>
       </c>
     </row>
     <row r="221">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>18.8469000707428</v>
+        <v>18.8345331547555</v>
       </c>
     </row>
     <row r="222">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>29.0580135087877</v>
+        <v>29.2200569396778</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>16.6624375713616</v>
+        <v>16.6619035675137</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>5.88317884803932</v>
+        <v>5.02732210094038</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>4.34041533725468</v>
+        <v>4.34041533725469</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>19.1246265780142</v>
+        <v>19.1631757753951</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>34.8064984764765</v>
+        <v>34.9571736887265</v>
       </c>
     </row>
     <row r="229">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>1.76467416562857</v>
+        <v>1.88721351962857</v>
       </c>
     </row>
     <row r="230">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>19.0777561882411</v>
+        <v>19.0757773278837</v>
       </c>
     </row>
     <row r="231">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>69.6045074443695</v>
+        <v>69.6252012763393</v>
       </c>
     </row>
     <row r="232">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>29.2737756697933</v>
+        <v>29.3997890437744</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>16.0047840895808</v>
+        <v>15.9839313234861</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>6.18127344867251</v>
+        <v>5.2879031270864</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>4.10243210032572</v>
+        <v>4.10243210032571</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>19.3744439325756</v>
+        <v>19.4211472049844</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>35.2941803694358</v>
+        <v>35.4436583899351</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>1.79033914980574</v>
+        <v>1.91148340580574</v>
       </c>
     </row>
     <row r="239">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>20.1899915681808</v>
+        <v>20.1923732054544</v>
       </c>
     </row>
     <row r="240">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>67.6989907070775</v>
+        <v>67.7140418792924</v>
       </c>
     </row>
     <row r="241">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>29.3858196932736</v>
+        <v>29.511094572338</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>16.6774133663125</v>
+        <v>16.6663973387943</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>5.93159609468891</v>
+        <v>4.99996259078905</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>3.93036478573779</v>
+        <v>3.93748362003561</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>19.3796515775864</v>
+        <v>19.4060221500125</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>34.8274458315853</v>
+        <v>34.9688723858413</v>
       </c>
     </row>
     <row r="247">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>1.7259047941782</v>
+        <v>1.8460531501782</v>
       </c>
     </row>
     <row r="248">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>21.4402420166396</v>
+        <v>21.4724541023629</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>63.3069536808152</v>
+        <v>63.3210558021522</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>30.1559161396529</v>
+        <v>30.275327593623</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>17.1055810845005</v>
+        <v>17.088533280453</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>5.11046813429263</v>
+        <v>4.16035990693597</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>3.69738120518981</v>
+        <v>3.70481196714475</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>18.7870715344726</v>
+        <v>18.8077167011726</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>34.9006352532977</v>
+        <v>35.0542259332894</v>
       </c>
     </row>
     <row r="256">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>1.63442139877598</v>
+        <v>1.75337315437598</v>
       </c>
     </row>
     <row r="257">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>20.3490964308809</v>
+        <v>20.3990806703263</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>59.6293942139014</v>
+        <v>59.6167703351419</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>30.3061542510914</v>
+        <v>30.4408593521988</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>17.2368279270412</v>
+        <v>17.2627638040531</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>5.02943772760999</v>
+        <v>4.06103763803229</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>3.58825394260227</v>
+        <v>3.596635722358</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>18.5228766774727</v>
+        <v>18.5131963335907</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>33.8247519226904</v>
+        <v>33.9747016312587</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>1.57819539473854</v>
+        <v>1.69875495453854</v>
       </c>
     </row>
     <row r="266">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>20.1552147998214</v>
+        <v>20.2299529727631</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>57.0646663700332</v>
+        <v>57.1092188429118</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>29.8547604138177</v>
+        <v>29.9919026507486</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>16.1159193962146</v>
+        <v>16.1301751232544</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>4.69366634708687</v>
+        <v>3.70720636613626</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>3.45122494433277</v>
+        <v>3.46524931979547</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>18.4271109899063</v>
+        <v>18.4390681019794</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>32.097928458979</v>
+        <v>32.2398341364887</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>1.40465618848829</v>
+        <v>1.52701984876329</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>20.047057615398</v>
+        <v>20.1549749569967</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>47.2740471609472</v>
+        <v>47.3029511305381</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>25.3820148467214</v>
+        <v>25.4966826365799</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>16.1495160111904</v>
+        <v>16.1324792511835</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>4.32641244179161</v>
+        <v>3.32138950956689</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>3.25626914972269</v>
+        <v>3.26590460660382</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>18.0253773695804</v>
+        <v>18.0308577925478</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>34.8269623413334</v>
+        <v>35.0192007571045</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>1.54126856766457</v>
+        <v>1.65763402223957</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>20.4165637162003</v>
+        <v>20.5574918603029</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>47.4075658613525</v>
+        <v>47.3405101255078</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>25.5989519455532</v>
+        <v>25.6301217722321</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>15.6276928514162</v>
+        <v>15.3356813358753</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>4.3868812272719</v>
+        <v>3.37855239956357</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>3.12845175274374</v>
+        <v>3.13678573485839</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>18.039529401522</v>
+        <v>18.0122352801882</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>27.5860975303024</v>
+        <v>27.7573355648537</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>1.47682137840645</v>
+        <v>1.57272973454617</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>18.3638263817566</v>
+        <v>18.3386137705359</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>45.3278377467887</v>
+        <v>45.3435823297199</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>25.4064726078998</v>
+        <v>25.4480614783539</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>13.7846643807371</v>
+        <v>13.6757659753152</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>5.06035158314154</v>
+        <v>3.47023629106324</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>2.94140197568547</v>
+        <v>2.9470598112936</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>17.9813284032941</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>25.7626476393831</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1.52396990302</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>17.0862075462804</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>37.4157333914064</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>26.5224098251934</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>13.0670246923217</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>3.8044552642856</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>2.84447524212164</v>
       </c>
     </row>
   </sheetData>
